--- a/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,08</t>
+          <t>2,83; 14,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 11,73</t>
+          <t>-0,21; 11,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,6</t>
+          <t>-4,76; 5,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 5,99</t>
+          <t>-3,02; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 102,22</t>
+          <t>14,17; 96,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 94,91</t>
+          <t>-3,69; 93,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 54,04</t>
+          <t>-31,29; 51,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 43,97</t>
+          <t>-17,56; 43,14</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 14,17</t>
+          <t>2,57; 14,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 11,51</t>
+          <t>-0,49; 12,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,96</t>
+          <t>4,23; 14,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 12,5</t>
+          <t>3,07; 12,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 101,2</t>
+          <t>11,25; 104,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 81,89</t>
+          <t>-2,91; 85,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,83; 225,02</t>
+          <t>36,66; 220,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 107,25</t>
+          <t>19,19; 108,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 16,93</t>
+          <t>1,36; 17,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 10,07</t>
+          <t>-1,78; 11,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 12,17</t>
+          <t>-3,39; 12,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 26,81</t>
+          <t>7,04; 25,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 96,89</t>
+          <t>5,81; 95,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 56,58</t>
+          <t>-8,59; 60,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 76,38</t>
+          <t>-19,69; 79,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,95; 624,1</t>
+          <t>36,39; 613,69</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 4,43</t>
+          <t>-3,14; 4,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,14</t>
+          <t>-1,82; 6,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,19</t>
+          <t>-3,17; 4,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 3,89</t>
+          <t>-11,37; 3,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 20,24</t>
+          <t>-12,45; 21,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 35,08</t>
+          <t>-8,97; 35,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 27,09</t>
+          <t>-16,63; 26,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 20,69</t>
+          <t>-55,75; 21,27</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 16,92</t>
+          <t>4,87; 17,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,84</t>
+          <t>8,46; 18,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,86</t>
+          <t>3,66; 12,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 9,7</t>
+          <t>-3,76; 9,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,45; 93,71</t>
+          <t>18,91; 93,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,59; 116,58</t>
+          <t>40,43; 120,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 69,99</t>
+          <t>15,82; 69,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 50,06</t>
+          <t>-14,64; 47,34</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,99; 30,68</t>
+          <t>22,91; 30,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 24,17</t>
+          <t>15,66; 24,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,87; 22,34</t>
+          <t>12,98; 22,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 21,45</t>
+          <t>11,47; 21,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>235,02; 694,33</t>
+          <t>227,62; 657,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>136,66; 518,93</t>
+          <t>145,44; 533,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>125,87; 447,05</t>
+          <t>118,75; 487,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>81,01; 894,03</t>
+          <t>83,04; 848,32</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,21</t>
+          <t>8,07; 12,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,3</t>
+          <t>6,1; 10,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,57</t>
+          <t>4,6; 8,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 9,16</t>
+          <t>2,04; 9,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,9; 65,56</t>
+          <t>39,35; 65,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,17; 63,44</t>
+          <t>33,61; 62,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,82; 58,88</t>
+          <t>27,47; 56,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,55; 71,14</t>
+          <t>13,59; 73,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
